--- a/unaa-events-from-website.xlsx
+++ b/unaa-events-from-website.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Databases\ANW\anw-website-parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680AC61B-9A2B-4941-A70F-AB8F503A64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04522BDF-2C8E-4B99-A015-9C97210C8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1275" windowWidth="21600" windowHeight="11295" tabRatio="486" xr2:uid="{75BF1535-A0EF-4502-995E-A9639AD8EBCE}"/>
+    <workbookView xWindow="1515" yWindow="2640" windowWidth="21600" windowHeight="11295" tabRatio="486" xr2:uid="{75BF1535-A0EF-4502-995E-A9639AD8EBCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
   <si>
     <t>Arizona</t>
   </si>
@@ -227,9 +227,6 @@
     <t>ORTHDX</t>
   </si>
   <si>
-    <t>November 9 (Youth) - Nov 10th (15U/ Adults)</t>
-  </si>
-  <si>
     <t>Super Ninja Zone</t>
   </si>
   <si>
@@ -308,15 +305,9 @@
     <t>December 14th</t>
   </si>
   <si>
-    <t>Jan 3 (Kids) - Jan 4th (Adults)</t>
-  </si>
-  <si>
     <t>The Wolfs Den</t>
   </si>
   <si>
-    <t>Jan 4 (kids) - Jan 5th (Adults)</t>
-  </si>
-  <si>
     <t>Conquer Ninja Gyms - Woodbury</t>
   </si>
   <si>
@@ -434,9 +425,6 @@
     <t>March 15th</t>
   </si>
   <si>
-    <t>March 16th</t>
-  </si>
-  <si>
     <t>March 22nd</t>
   </si>
   <si>
@@ -488,9 +476,6 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Conquer Ninja - Fargo</t>
-  </si>
-  <si>
     <t>Ninja Force</t>
   </si>
   <si>
@@ -509,9 +494,6 @@
     <t>Kid Wonder</t>
   </si>
   <si>
-    <t>November 8 &amp; 10</t>
-  </si>
-  <si>
     <t>November 23rd</t>
   </si>
   <si>
@@ -519,6 +501,48 @@
   </si>
   <si>
     <t>April 12th</t>
+  </si>
+  <si>
+    <t>Nova Ninja</t>
+  </si>
+  <si>
+    <t>November 9 (Youth) &amp; Nov 10 (15U/ Adults)</t>
+  </si>
+  <si>
+    <t>December 15th</t>
+  </si>
+  <si>
+    <t>January 3 (Kids) - 4th (Adults)</t>
+  </si>
+  <si>
+    <t>January 4 (kids) - 5th (Adults)</t>
+  </si>
+  <si>
+    <t>January 3 - 4th</t>
+  </si>
+  <si>
+    <t>Ninja Hub</t>
+  </si>
+  <si>
+    <t>January 12th</t>
+  </si>
+  <si>
+    <t>February 1st</t>
+  </si>
+  <si>
+    <t>Conquer Gym - Fargo</t>
+  </si>
+  <si>
+    <t>Ninja Fortress</t>
+  </si>
+  <si>
+    <t>April 19th (LCQ)</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Katy</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Greenbrier (17U Event)</t>
   </si>
 </sst>
 </file>
@@ -965,21 +989,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06E0724-C1E9-4B0B-BF86-891AA76BB687}">
-  <dimension ref="A1:C94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB28550-3B94-44EB-9360-48B9A87C1D38}">
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C93" sqref="A1:C93"/>
+      <selection activeCell="C100" sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1067,7 +1086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1078,7 +1097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1100,7 +1119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1111,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1122,7 +1141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1155,7 +1174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1177,73 +1196,73 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1254,7 +1273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -1265,7 +1284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1276,7 +1295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1287,7 +1306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -1298,7 +1317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="189" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -1306,800 +1325,884 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="8" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="8" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="226.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="C66" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="5" t="s">
+      <c r="C81" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="C82" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="C96" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C99" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.hitsquadninjagym.com/" xr:uid="{B23D6918-773B-4B7B-BBEA-10911579D960}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://theninjagym.net/" xr:uid="{1633B008-BE27-4C4D-B883-30F26A625E54}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://sumnerninja.com/" xr:uid="{7118D4D8-FBB8-4CEC-9CB0-DDB513DEC4F1}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://bigtimeninja.com/" xr:uid="{EA676771-FF95-400F-A743-DD8C6A9F3D75}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://republicwarriorsports.com/" xr:uid="{A2A76D68-5855-46DD-B595-C96A778771AE}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.ninjaintensity.com/" xr:uid="{9EDAB825-23D0-46A4-932E-FC3ACF15BD29}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://www.facebook.com/NextLevelGymStw/" xr:uid="{978BD4CE-A378-451A-A0E7-ECA882726EDD}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://www.warriorzone.ninja/" xr:uid="{28C82EE2-D533-4F31-87BD-F9E7EEECE1DD}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://ninjalairlv.com/" xr:uid="{AFAA82D6-7919-49DF-9D72-59E0F141BD6F}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://ninjobstacles.com/" xr:uid="{324FDBD9-C6EF-48A0-9B02-A58234633CE0}"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://www.altiusninja.com/" xr:uid="{FF037E3E-ACE6-4D1F-BF99-8A1EEF711E46}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://bestofmidlandtx.com/biz/fitness-centers/permian-basin-ninja/" xr:uid="{A69DE85A-C3F7-4D83-8430-2D6A4B05A3A9}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://www.ultimateninjagym.com/competitions" xr:uid="{CBD7916F-6A29-4059-9D6F-6D4C4FCD7DC9}"/>
-    <hyperlink ref="A14" r:id="rId14" display="http://www.authentikmovement.com/" xr:uid="{BEC29190-E17A-48B3-9639-C1B3F5952972}"/>
-    <hyperlink ref="A15" r:id="rId15" display="http://nebraskaninja.com/" xr:uid="{1281C10B-AAF6-4EBB-934E-0AC01AB0B8B2}"/>
-    <hyperlink ref="A16" r:id="rId16" display="http://tricountyninja.com/" xr:uid="{F79B6827-30E7-4096-A8B6-743EB3F99B3F}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://www.theninjaplayground.com/" xr:uid="{2E691B8D-B80B-409D-8E1E-C84D38F7E45E}"/>
-    <hyperlink ref="A18" r:id="rId18" display="http://www.districtchristianacademy.com/" xr:uid="{ADBF7FEB-247D-4CBE-82D7-4A3B1A06D9D5}"/>
-    <hyperlink ref="A19" r:id="rId19" display="http://vertexlabsacademy.com/" xr:uid="{1E413162-ADDC-40BC-BCFA-22AB032469A1}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://www.paragonperformancesports.com/" xr:uid="{F8EFC341-DC55-4DE5-9371-1686CF844795}"/>
-    <hyperlink ref="A21" r:id="rId21" display="http://magiccitygymnastics.com/" xr:uid="{16EC15E5-855E-49C4-A78B-57AB5D7A63CC}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://powerpickle.com/" xr:uid="{FC53C720-B6BC-44DA-9FBE-A82385A1521B}"/>
-    <hyperlink ref="A23" r:id="rId23" display="http://www.605ninja.com/" xr:uid="{8DF2DB6D-07CB-44D1-926E-B7A08D162E51}"/>
-    <hyperlink ref="A24" r:id="rId24" display="http://kidwonder.us/" xr:uid="{67AB694E-B3B9-4809-8AC7-762CD87EACD5}"/>
-    <hyperlink ref="A25" r:id="rId25" display="http://www.aimgym.com/" xr:uid="{48B7F541-A515-44BC-BF8E-122947CD94F0}"/>
-    <hyperlink ref="A26" r:id="rId26" display="http://iamfortified.com/" xr:uid="{F8EEC87B-1FFD-4B2E-BF51-9B08C9F298EF}"/>
-    <hyperlink ref="A27" r:id="rId27" display="http://airbendersgym.com/" xr:uid="{C2908F58-5D4C-422D-A4E5-1C0A7422CDE9}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://www.warriortechnc.com/" xr:uid="{5B0A80B5-92DD-4BB4-9EE1-A511FB6B4A0C}"/>
-    <hyperlink ref="A29" r:id="rId29" display="http://surgeninjagym.com/" xr:uid="{C81D3ABA-15CA-465A-ABC6-0C9CB465BD7C}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://www.orthdx.com/" xr:uid="{4B621ABB-3C57-4BE8-9B17-3C3DD3BAF1FB}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://superninjazone.com/" xr:uid="{804CAAAF-20C2-442B-827B-166C371C0AEC}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://www.ironsportsfit.com/" xr:uid="{F6F0DD81-472E-455B-A778-78D74E7B2860}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://www.conquerninja.com/" xr:uid="{28377BE3-6862-4827-87DD-5BC6A27E767F}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://www.thewisc.com/rugged-obstacle-course" xr:uid="{F10FEBF6-1CAA-43D8-96F6-B0DAB075C223}"/>
-    <hyperlink ref="A35" r:id="rId35" display="http://avantcoeurgymnastics.com/" xr:uid="{4F2683E0-D241-43A9-A6DD-47F96B686565}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://camprhino.com/ninjagym/" xr:uid="{882BA8E7-E498-4CB4-94E2-60928AC3A38E}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://www.altitudemovement.com/" xr:uid="{67A3E1CF-F54F-4225-A993-5F7F8BBA5821}"/>
-    <hyperlink ref="A38" r:id="rId38" location="ninja-warrior-courses" display="https://lostislandminigolf.com/attractions/ - ninja-warrior-courses" xr:uid="{796B1CF1-1A3D-4857-91B9-41933C225C1B}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://thegripninja.com/" xr:uid="{A5A52038-59C3-486E-A4DD-0D5E6532F5FA}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://campninjawarrior.com/" xr:uid="{DF7B9A9F-BBEC-4A63-823A-777FF86685F4}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://fourstarninja.com/" xr:uid="{C3A651B0-2C81-4387-BA26-B2AA4096AEB7}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://www.movesportninja.com/" xr:uid="{E0626E6C-8F74-44CF-8AEB-EF2FFF71E65E}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://ultimateninjas.com/location/anaheimhills/" xr:uid="{CD8F9D07-0E6C-40D9-904E-0129C214A120}"/>
-    <hyperlink ref="A44" r:id="rId44" display="http://www.freespiritbend.com/" xr:uid="{FA78A3C9-211B-441D-9F38-634DA99DB227}"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://ninjamasterapp.com/events/5348-unaa-area-qualifier-comp-at-ultimate-ninjas-elmhurst" xr:uid="{1A2E22F1-F144-4A8C-888D-C192C637293E}"/>
-    <hyperlink ref="A46" r:id="rId46" display="http://ninjakour.com/" xr:uid="{C970AE54-852A-481B-AC36-BD3065B30A28}"/>
-    <hyperlink ref="A47" r:id="rId47" display="http://www.hitsquadninjagym.com/" xr:uid="{29621383-CE72-4AE9-84F3-16FECD9D7647}"/>
-    <hyperlink ref="A48" r:id="rId48" display="http://shopthewolfsden.com/" xr:uid="{0EFE7D61-A414-4463-B402-5C4E743FB6D1}"/>
-    <hyperlink ref="A49" r:id="rId49" display="https://www.conquerninja.com/" xr:uid="{24CA3519-F0BE-48ED-BDD2-FE2BE2C5020C}"/>
-    <hyperlink ref="A50" r:id="rId50" display="https://wcgcusa.com/" xr:uid="{EBDBE916-FC85-48CD-B624-754F92CF1468}"/>
-    <hyperlink ref="A51" r:id="rId51" display="http://www.baysidesportsacademy.org/" xr:uid="{6070B767-AA6B-47E0-84C5-1CBFDA03A56D}"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://www.ninjamanchesternh.com/" xr:uid="{0DFB1CCB-4A96-47E7-87F4-0253A70CA598}"/>
-    <hyperlink ref="A53" r:id="rId53" display="http://www.goninjagym.com/" xr:uid="{D1BC1E18-1796-4293-959A-3E60E9CEC6E4}"/>
-    <hyperlink ref="A54" r:id="rId54" display="http://www.605ninja.com/" xr:uid="{C8DE2A04-C1BC-4663-BB37-CDF8E6337EB9}"/>
-    <hyperlink ref="A55" r:id="rId55" display="https://www.impactninjagym.com/" xr:uid="{B1637891-E335-43BD-8ABD-5D1DCB54783F}"/>
-    <hyperlink ref="A56" r:id="rId56" display="https://www.flowvault.net/" xr:uid="{23BC510A-B931-4DD1-BEA1-31D6597CBAB8}"/>
-    <hyperlink ref="A57" r:id="rId57" display="https://www.facebook.com/NextLevelGymStw/" xr:uid="{9EF91BC0-89D4-4245-9A12-EFDC7E5DBA03}"/>
-    <hyperlink ref="A58" r:id="rId58" display="http://ninjaobstacleacademy.com/" xr:uid="{26CE2B78-5814-46D6-84C1-834C90951711}"/>
-    <hyperlink ref="A59" r:id="rId59" display="http://www.authentikmovement.com/" xr:uid="{520E9861-3D1A-4746-B615-C3C9872C7588}"/>
-    <hyperlink ref="A60" r:id="rId60" display="https://sumnerninja.com/" xr:uid="{5B7A8EA2-BB13-4664-AFC4-2AB71BC8DE4E}"/>
-    <hyperlink ref="A61" r:id="rId61" display="https://www.warriorchallengearena.com/" xr:uid="{87EEE2D5-B8A0-46D6-9C94-B6BA28834688}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://www.ninjasunited.com/" xr:uid="{589E6A9C-D2CB-427C-B9A3-DDAD93F3B8FD}"/>
-    <hyperlink ref="A63" r:id="rId63" display="http://ninjamarlborough.com/" xr:uid="{A075BE02-A8E1-4AEF-BD2D-683B47044488}"/>
-    <hyperlink ref="A64" r:id="rId64" display="https://www.conquerninja.com/" xr:uid="{43ED66AE-D915-4229-825E-96C14E3F925A}"/>
-    <hyperlink ref="A65" r:id="rId65" display="http://airbendersgym.com/" xr:uid="{3902760E-6DB5-4473-8A88-F4E09987521B}"/>
-    <hyperlink ref="A66" r:id="rId66" display="https://www.ironsportsfit.com/" xr:uid="{051BD48B-517E-4770-88AE-5D775146711C}"/>
-    <hyperlink ref="A67" r:id="rId67" display="https://rocksolidwarrior.com/" xr:uid="{D3CFCFF6-CF1C-476C-B86E-03A06947D7D6}"/>
-    <hyperlink ref="A68" r:id="rId68" display="https://ninjobstacles.com/" xr:uid="{388643A0-1129-4ABF-9717-19F0E4411535}"/>
-    <hyperlink ref="A69" r:id="rId69" display="http://vertexlabsacademy.com/" xr:uid="{C43CE45C-4A93-44C3-9D03-BD6CDA286927}"/>
-    <hyperlink ref="A70" r:id="rId70" display="http://novaninja.com/" xr:uid="{60AF10B6-0B45-4DDE-8EBE-A9726C64E636}"/>
-    <hyperlink ref="A71" r:id="rId71" display="https://www.junglemovement.com/" xr:uid="{8D690041-0364-41BA-8BF3-B1F709FDA7F0}"/>
-    <hyperlink ref="A72" r:id="rId72" display="http://www.warriortechnc.com/" xr:uid="{E8A9824B-FBD9-4D5D-BEEE-CDEDED873607}"/>
-    <hyperlink ref="A73" r:id="rId73" display="https://superninjazone.com/" xr:uid="{A63955DD-F83E-401C-B682-63E8BA27D53D}"/>
-    <hyperlink ref="A74" r:id="rId74" display="http://www.freespiritbend.com/" xr:uid="{FBEDD614-6E96-426D-8C37-6E96A78B527A}"/>
-    <hyperlink ref="A75" r:id="rId75" display="https://www.paragonperformancesports.com/" xr:uid="{204AC17F-7F04-4FB4-94C4-E4B1C7FA9D95}"/>
-    <hyperlink ref="A76" r:id="rId76" display="https://www.misslibbys.com/ninja" xr:uid="{BEDBFA42-FBC8-462A-8D25-9132A77B1D01}"/>
-    <hyperlink ref="A77" r:id="rId77" display="https://www.thewisc.com/rugged-obstacle-course" xr:uid="{169547B2-84E3-47E3-A800-38F1741E8B62}"/>
-    <hyperlink ref="A78" r:id="rId78" display="https://campninjawarrior.com/" xr:uid="{9636C357-F09A-4D08-A1D2-B15166A5747C}"/>
-    <hyperlink ref="A79" r:id="rId79" display="http://magiccitygymnastics.com/" xr:uid="{B1C3542A-E20C-4BDD-BB64-37C3B4E58EAF}"/>
-    <hyperlink ref="A80" r:id="rId80" display="https://www.warriorzone.ninja/" xr:uid="{27134614-E5FA-4F33-A9CD-71BA93031B55}"/>
-    <hyperlink ref="A81" r:id="rId81" display="http://www.sterlinggym.com/ninja/index.html" xr:uid="{30CD1130-A482-4E9F-982B-FAF23CA8255E}"/>
-    <hyperlink ref="A82" r:id="rId82" display="https://www.altitudemovement.com/" xr:uid="{B3D99B11-EF83-4D25-9377-80965C85DB4D}"/>
-    <hyperlink ref="A83" r:id="rId83" display="https://rocksolidwarrior.com/" xr:uid="{31701E20-02F7-43D5-A361-C935D0D5B8B1}"/>
-    <hyperlink ref="A84" r:id="rId84" display="https://www.ninjamanchesternh.com/" xr:uid="{7B1CC90D-2F2D-45ED-BFA1-EB9C90DF2F59}"/>
-    <hyperlink ref="A85" r:id="rId85" display="https://tumbletime.net/" xr:uid="{55579B76-B8E4-4863-8F62-03B201A26BFC}"/>
-    <hyperlink ref="A86" r:id="rId86" display="http://www.altiusninja.com/" xr:uid="{5EBF1E12-D49D-42EE-BA38-6508C627281F}"/>
-    <hyperlink ref="A87" r:id="rId87" display="https://powerpickle.com/" xr:uid="{4B84CC07-199F-4ADC-9C20-0A6E8A262DC4}"/>
-    <hyperlink ref="A88" r:id="rId88" display="https://kingscampsandfitness.com/" xr:uid="{56DC9B5E-D2D4-4413-90E3-890810B30F14}"/>
-    <hyperlink ref="A89" r:id="rId89" display="http://avantcoeurgymnastics.com/" xr:uid="{93E5D180-F156-4E2F-AE28-72D7FD844356}"/>
-    <hyperlink ref="A90" r:id="rId90" display="https://www.leapwyo.com/" xr:uid="{4D2F4408-B547-4FDC-A0D6-ECB4A89B862E}"/>
-    <hyperlink ref="A91" r:id="rId91" display="http://www.conquerninja.com/" xr:uid="{BC74D1F5-20B9-4E98-AA29-545F1966C1DB}"/>
-    <hyperlink ref="A92" r:id="rId92" display="http://www.ninjaforcegym.com/" xr:uid="{4DDBADCB-6568-4E93-8D95-9511229ED240}"/>
-    <hyperlink ref="A93" r:id="rId93" display="https://www.hybridninjafitness.com/" xr:uid="{D70DC967-79AB-4037-A336-EB38037EC5C4}"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://www.hitsquadninjagym.com/" xr:uid="{E9367B59-031F-4FF4-B966-42C330B0C666}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://theninjagym.net/" xr:uid="{198FDEEB-7E55-49C3-9962-A933F4CC95A4}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://sumnerninja.com/" xr:uid="{6CE69B57-E1C4-4676-9542-FFF9BDDC7D38}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://bigtimeninja.com/" xr:uid="{D3706813-6196-44AA-AA44-D95BF9A17CCD}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://republicwarriorsports.com/" xr:uid="{F3DD3149-C2D4-49A7-80A1-AD5C539D6397}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.ninjaintensity.com/" xr:uid="{34C76E9E-A60F-4128-86B6-1D5355710FE8}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://www.facebook.com/NextLevelGymStw/" xr:uid="{55C9D858-9500-4808-9038-31FC461950D0}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://www.warriorzone.ninja/" xr:uid="{750317B3-33FA-4D5B-87C4-9AFFB818F86C}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://ninjalairlv.com/" xr:uid="{13897DCD-832D-46B4-84E9-1C52789D872E}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://ninjobstacles.com/" xr:uid="{AF9B9C0D-F483-4371-92E3-EB138E7CD964}"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://www.altiusninja.com/" xr:uid="{58EC45CE-88BB-4714-A1BF-D229A48F43A3}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://bestofmidlandtx.com/biz/fitness-centers/permian-basin-ninja/" xr:uid="{DCB45BAD-5D75-4B02-B1BE-8471953059B1}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://www.ultimateninjagym.com/competitions" xr:uid="{8F79E9C9-FE46-405A-9D97-C1DD1513E1FA}"/>
+    <hyperlink ref="A14" r:id="rId14" display="http://www.authentikmovement.com/" xr:uid="{2B8AF534-5743-40AD-A9A7-015B5ED741DD}"/>
+    <hyperlink ref="A15" r:id="rId15" display="http://nebraskaninja.com/" xr:uid="{0B9E7D9A-F468-42CD-94BA-BE525C82835E}"/>
+    <hyperlink ref="A16" r:id="rId16" display="http://tricountyninja.com/" xr:uid="{4D4E428B-DAA1-4B8D-99EB-8D649FEA9DF9}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://www.theninjaplayground.com/" xr:uid="{5AF8B5CB-A638-4E78-91C4-15E6021A3F5E}"/>
+    <hyperlink ref="A18" r:id="rId18" display="http://www.districtchristianacademy.com/" xr:uid="{3E7BEEA3-8CD5-41B3-A273-AF39E5525E38}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://www.paragonperformancesports.com/" xr:uid="{6D2CA9C2-6953-4CF2-96EE-2335CC909B17}"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://magiccitygymnastics.com/" xr:uid="{F4F4E681-DB04-4C2B-B3C4-09F268A5D205}"/>
+    <hyperlink ref="A21" r:id="rId21" display="https://powerpickle.com/" xr:uid="{A4A79DD3-E907-4E98-9301-54CD01FA4740}"/>
+    <hyperlink ref="A22" r:id="rId22" display="http://www.605ninja.com/" xr:uid="{A58E0614-F852-4943-818A-82E192AAACDF}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://novaninja.com/" xr:uid="{36CC3F38-F99C-4AAF-947C-B1F5220A693D}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://kidwonder.us/" xr:uid="{B9A09160-480B-40FB-819A-5734E1CF3670}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://www.aimgym.com/" xr:uid="{0AF37552-4158-49AE-ABAB-AF940F65CDDC}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://iamfortified.com/" xr:uid="{C1293D02-E49C-4CDC-A6CF-55E9E127BEE9}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://airbendersgym.com/" xr:uid="{0B0C1FBF-3005-4008-A3B3-2E42A21FC14B}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://www.warriortechnc.com/" xr:uid="{2215F966-3C2A-47DF-BB09-0D34EB9E33A8}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://surgeninjagym.com/" xr:uid="{07D63AFB-2B53-43EE-AC7F-9A149CCDCBC4}"/>
+    <hyperlink ref="A30" r:id="rId30" display="https://www.orthdx.com/" xr:uid="{C5258511-9F39-4C39-8A0B-848158187135}"/>
+    <hyperlink ref="A31" r:id="rId31" display="https://superninjazone.com/" xr:uid="{8C24B37A-58DA-416F-904F-06CA5222ECAA}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://www.ironsportsfit.com/" xr:uid="{06C23FED-1A92-4B74-8E35-06D6E8847C95}"/>
+    <hyperlink ref="A33" r:id="rId33" display="https://www.conquerninja.com/" xr:uid="{E1392BEC-1444-4C89-A52F-5195C5046EEA}"/>
+    <hyperlink ref="A34" r:id="rId34" display="https://www.thewisc.com/rugged-obstacle-course" xr:uid="{D8E19DCE-2621-484E-A396-ECB1246208EE}"/>
+    <hyperlink ref="A35" r:id="rId35" display="http://avantcoeurgymnastics.com/" xr:uid="{0C12A8AE-F4B3-461D-972D-97C6984898B8}"/>
+    <hyperlink ref="A36" r:id="rId36" display="https://camprhino.com/ninjagym/" xr:uid="{8747E642-9FA4-4B57-AC93-D4B65903DF59}"/>
+    <hyperlink ref="A37" r:id="rId37" display="https://www.altitudemovement.com/" xr:uid="{2B86C064-3187-4C43-8EA8-D1A96BC09FCE}"/>
+    <hyperlink ref="A38" r:id="rId38" location="ninja-warrior-courses" display="https://lostislandminigolf.com/attractions/ - ninja-warrior-courses" xr:uid="{39CF2365-0817-4D15-AE63-3C069749DE1A}"/>
+    <hyperlink ref="A39" r:id="rId39" display="https://thegripninja.com/" xr:uid="{82DE7251-2E4F-4143-B3A8-881C4652AF00}"/>
+    <hyperlink ref="A40" r:id="rId40" display="https://campninjawarrior.com/" xr:uid="{D68C8887-5B41-45F4-BDA1-0379337EE5BB}"/>
+    <hyperlink ref="A41" r:id="rId41" display="https://fourstarninja.com/" xr:uid="{7BBE2F0B-69BD-415E-B199-F6E5C525A543}"/>
+    <hyperlink ref="A42" r:id="rId42" display="https://www.movesportninja.com/" xr:uid="{052C3185-9F35-4D8B-A2C0-4E1F7BA1B54D}"/>
+    <hyperlink ref="A43" r:id="rId43" display="https://ultimateninjas.com/location/anaheimhills/" xr:uid="{D026E569-4652-4559-922C-A05BD7E7F95B}"/>
+    <hyperlink ref="A44" r:id="rId44" display="http://www.freespirityoganinjaplay.com/" xr:uid="{897E74F9-1256-480E-BC6A-3A0860098702}"/>
+    <hyperlink ref="A45" r:id="rId45" display="https://ninjamasterapp.com/events/5348-unaa-area-qualifier-comp-at-ultimate-ninjas-elmhurst" xr:uid="{00246ABB-BC72-4E34-AA23-280AFE05227D}"/>
+    <hyperlink ref="A46" r:id="rId46" display="http://ninjakour.com/" xr:uid="{C71B86F9-47D5-4AFB-ABA7-FE63864976D8}"/>
+    <hyperlink ref="A47" r:id="rId47" display="http://vertexlabsacademy.com/" xr:uid="{9046860B-25FE-415D-87AD-BA75655DD06E}"/>
+    <hyperlink ref="A48" r:id="rId48" display="http://www.hitsquadninjagym.com/" xr:uid="{EDF17292-E553-4EE1-A299-2C7A8721AF00}"/>
+    <hyperlink ref="A49" r:id="rId49" display="http://shopthewolfsden.com/" xr:uid="{9607EA67-381B-4362-BE6C-8AF27F903E8F}"/>
+    <hyperlink ref="A50" r:id="rId50" display="https://wcgcusa.com/" xr:uid="{8249A3BC-09D8-4FB0-9604-7851EF0F65F8}"/>
+    <hyperlink ref="A51" r:id="rId51" display="https://www.conquerninja.com/" xr:uid="{49395910-BF04-449F-91AB-A6D5541303CE}"/>
+    <hyperlink ref="A52" r:id="rId52" display="http://kidwonder.us/" xr:uid="{6819E067-FB11-42A4-AA99-0A4A3A3EC190}"/>
+    <hyperlink ref="A53" r:id="rId53" display="http://www.baysidesportsacademy.org/" xr:uid="{8C175D9F-6061-478A-B1F0-92A2B6316C58}"/>
+    <hyperlink ref="A54" r:id="rId54" display="https://www.ninjamanchesternh.com/" xr:uid="{51E6168A-1F14-498C-8D25-02D6CA663CCE}"/>
+    <hyperlink ref="A55" r:id="rId55" display="http://ninjahubgym.com/" xr:uid="{78B4C4D2-D960-47AB-88B7-A704AE42E0FE}"/>
+    <hyperlink ref="A56" r:id="rId56" display="http://www.goninjagym.com/" xr:uid="{A8CAECBE-2479-43BF-B6E0-3F7D5B239CAF}"/>
+    <hyperlink ref="A57" r:id="rId57" display="https://powerpickle.com/" xr:uid="{C2C5D209-522D-4BF4-9F5D-596C55C5BDC6}"/>
+    <hyperlink ref="A58" r:id="rId58" display="http://www.605ninja.com/" xr:uid="{19FCCFC4-E536-47B3-A483-030659CF63D4}"/>
+    <hyperlink ref="A59" r:id="rId59" display="https://www.impactninjagym.com/" xr:uid="{9F26E4F9-4962-4D71-B50A-E9E6D06F8618}"/>
+    <hyperlink ref="A60" r:id="rId60" display="https://www.flowvault.net/" xr:uid="{5A07BCC4-D98E-4812-BB29-7F6C30351E6C}"/>
+    <hyperlink ref="A61" r:id="rId61" display="https://www.facebook.com/NextLevelGymStw/" xr:uid="{273318D5-1CDE-49D5-85F1-CB290F88AF64}"/>
+    <hyperlink ref="A62" r:id="rId62" display="http://ninjaobstacleacademy.com/" xr:uid="{D0ED5B61-1049-49C2-A544-AFA515621635}"/>
+    <hyperlink ref="A63" r:id="rId63" display="https://www.leapwyo.com/" xr:uid="{DDD153C2-A04C-4AEF-A24E-DBFBD48298D0}"/>
+    <hyperlink ref="A64" r:id="rId64" display="http://www.authentikmovement.com/" xr:uid="{3B0CCB89-F17F-4003-9872-ACF83320F73E}"/>
+    <hyperlink ref="A65" r:id="rId65" display="https://sumnerninja.com/" xr:uid="{5652E501-150E-48C6-BA1B-21368AE6A4D3}"/>
+    <hyperlink ref="A66" r:id="rId66" display="https://www.warriorchallengearena.com/" xr:uid="{AEE8E406-DF9A-4214-B9F0-3BB11F43EEFC}"/>
+    <hyperlink ref="A67" r:id="rId67" display="https://www.ninjasunited.com/" xr:uid="{67EBCB61-3635-4D3E-A598-F8F74D93FF21}"/>
+    <hyperlink ref="A68" r:id="rId68" display="http://ninjamarlborough.com/" xr:uid="{10E3CD09-BE2E-4C31-96D0-9764837CA22F}"/>
+    <hyperlink ref="A69" r:id="rId69" display="https://www.conquerninja.com/" xr:uid="{35272FB0-D504-4F5E-BB8E-73A0AC9E1DBD}"/>
+    <hyperlink ref="A70" r:id="rId70" display="http://airbendersgym.com/" xr:uid="{D189F83E-6CEA-4512-AB51-69C152B281A0}"/>
+    <hyperlink ref="A71" r:id="rId71" display="https://www.ironsportsfit.com/" xr:uid="{5B293C6C-0FAE-4E6F-8A82-6A29736C61C2}"/>
+    <hyperlink ref="A72" r:id="rId72" display="https://rocksolidwarrior.com/" xr:uid="{40C1A250-0053-45B9-B4AC-7B76781A0A0B}"/>
+    <hyperlink ref="A73" r:id="rId73" display="https://ninjobstacles.com/" xr:uid="{63E05EE5-B88D-4B81-AAB3-D8258EE8D742}"/>
+    <hyperlink ref="A74" r:id="rId74" display="http://vertexlabsacademy.com/" xr:uid="{0B9700DA-3515-48B7-B957-011CE8BE7D19}"/>
+    <hyperlink ref="A75" r:id="rId75" display="http://novaninja.com/" xr:uid="{BEC33BD5-6D36-455F-9CDD-E840C5F834A5}"/>
+    <hyperlink ref="A76" r:id="rId76" display="https://www.junglemovement.com/" xr:uid="{2264E4D5-3D4F-451B-8288-8C3C7E4CC43C}"/>
+    <hyperlink ref="A77" r:id="rId77" display="http://www.conquerninja.com/" xr:uid="{EE9C4DAD-738B-4E57-B403-0E1D62A272AC}"/>
+    <hyperlink ref="A78" r:id="rId78" display="http://www.warriortechnc.com/" xr:uid="{366F2992-E4AE-491B-8F6B-E1E8F4A8145E}"/>
+    <hyperlink ref="A79" r:id="rId79" display="https://superninjazone.com/" xr:uid="{1B97CC08-C36E-4870-B1C2-C45638EADB48}"/>
+    <hyperlink ref="A80" r:id="rId80" display="https://www.paragonperformancesports.com/" xr:uid="{EF817C05-CF09-4EDF-BB93-69C1A513ECE7}"/>
+    <hyperlink ref="A81" r:id="rId81" display="https://www.misslibbys.com/ninja" xr:uid="{6AC0C47C-D852-49BD-93FA-D64D4CC0CEC2}"/>
+    <hyperlink ref="A82" r:id="rId82" display="https://www.thewisc.com/rugged-obstacle-course" xr:uid="{65FA317D-FA53-419B-B24E-495EA94E9C3F}"/>
+    <hyperlink ref="A83" r:id="rId83" display="https://bestofmidlandtx.com/biz/fitness-centers/permian-basin-ninja/" xr:uid="{0450665D-3E58-44EB-AA26-CB02F4B70599}"/>
+    <hyperlink ref="A84" r:id="rId84" display="https://campninjawarrior.com/" xr:uid="{3A38DA8E-6FBC-470A-AB26-3AD564E607D8}"/>
+    <hyperlink ref="A85" r:id="rId85" display="http://magiccitygymnastics.com/" xr:uid="{9C14AF32-62B6-4DDB-9270-4328A91115E7}"/>
+    <hyperlink ref="A86" r:id="rId86" display="https://www.warriorzone.ninja/" xr:uid="{A1E16045-B3DF-46F9-8414-7CA428EF86A8}"/>
+    <hyperlink ref="A87" r:id="rId87" display="http://www.sterlinggym.com/ninja/index.html" xr:uid="{EC1838CA-8A0F-4BFC-ABA1-9AE3CAF128D9}"/>
+    <hyperlink ref="A88" r:id="rId88" display="https://www.altitudemovement.com/" xr:uid="{050B9BF0-43C8-4577-9375-1B48F0843036}"/>
+    <hyperlink ref="A89" r:id="rId89" display="http://www.freespirityoganinjaplay.com/" xr:uid="{28E5772A-8202-4E22-BAA7-8E2F2D1EF8E6}"/>
+    <hyperlink ref="A90" r:id="rId90" display="https://rocksolidwarrior.com/" xr:uid="{FD3DC3D6-34F3-41AF-B0D1-6233E951E52B}"/>
+    <hyperlink ref="A91" r:id="rId91" display="https://www.ninjamanchesternh.com/" xr:uid="{46C7D3E5-C811-47C4-8D20-13C7BD56155C}"/>
+    <hyperlink ref="A92" r:id="rId92" display="https://tumbletime.net/" xr:uid="{1ECDB611-5179-4665-857C-9F6766642640}"/>
+    <hyperlink ref="A93" r:id="rId93" display="http://sandyzimmermanninja.com/" xr:uid="{70CC36D9-610C-468C-A719-0FEE9071C5AC}"/>
+    <hyperlink ref="A94" r:id="rId94" display="http://www.altiusninja.com/" xr:uid="{7889E7D0-A8D9-4AE5-964C-4E6A03669E13}"/>
+    <hyperlink ref="A95" r:id="rId95" display="https://kingscampsandfitness.com/" xr:uid="{4BC94CCE-88C4-41D6-A27A-877D593024D9}"/>
+    <hyperlink ref="A96" r:id="rId96" display="http://avantcoeurgymnastics.com/" xr:uid="{49989704-1F85-4360-B70F-E25CF02C6649}"/>
+    <hyperlink ref="A97" r:id="rId97" display="http://www.ninjaforcegym.com/" xr:uid="{3D85D34B-C621-4AD3-A3E4-656563CDBF42}"/>
+    <hyperlink ref="A98" r:id="rId98" display="https://www.hybridninjafitness.com/" xr:uid="{B19BADF6-F87E-48A6-A8FB-80B14C47596F}"/>
+    <hyperlink ref="A99" r:id="rId99" display="https://ninjakatytx.com/" xr:uid="{28884861-4913-4B5B-B794-0762A38862E0}"/>
+    <hyperlink ref="A100" r:id="rId100" display="https://www.ninjagreenbrier.com/" xr:uid="{E1820A47-C9A6-4F0A-88A9-AD37D49C9392}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId94"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
--- a/unaa-events-from-website.xlsx
+++ b/unaa-events-from-website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D744B-9630-4277-90CB-5492B8300C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8224B537-E62F-4303-ADCD-A1C65AA7575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="25905" windowHeight="11295" tabRatio="486" xr2:uid="{75BF1535-A0EF-4502-995E-A9639AD8EBCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="486" xr2:uid="{75BF1535-A0EF-4502-995E-A9639AD8EBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>Arizona</t>
   </si>
@@ -300,13 +300,49 @@
   </si>
   <si>
     <t>June 8th</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Paragon Performance Sports</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Fortified Fitness</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Marlborough</t>
+  </si>
+  <si>
+    <t>The Barn</t>
+  </si>
+  <si>
+    <t>NCNS (Qualified Athletes Only)</t>
+  </si>
+  <si>
+    <t>November 16 - 17th</t>
+  </si>
+  <si>
+    <t>June 1st</t>
+  </si>
+  <si>
+    <t>June 6th</t>
+  </si>
+  <si>
+    <t>June 7 - 8th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,46 +350,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Libre Baskerville"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Libre Baskerville"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -361,56 +367,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -743,636 +707,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78A1B43-AE9E-461E-A8EC-0AA0081BB1D5}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.hitsquadninjagym.com/" xr:uid="{710E34A3-992A-4E01-80A2-DC03B1379F1C}"/>
-    <hyperlink ref="A2" r:id="rId2" display="http://www.605ninja.com/" xr:uid="{B4E96223-84D3-4E9E-AF30-4D10690047CC}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://www.movesportninja.com/" xr:uid="{8AD86679-3AFD-4A51-A3AE-DC03FBF97700}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://ninjaobstacleacademy.com/" xr:uid="{C0968CEC-8406-4942-80C7-032BE7F7C50E}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://www.leapwyo.com/" xr:uid="{7F8F9036-ADDE-438F-8CBB-3C3660766B2B}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.theninjaplayground.com/book-online" xr:uid="{244CB146-9148-4543-B41C-8F241F62D15B}"/>
-    <hyperlink ref="A7" r:id="rId7" display="http://ninjakour.com/" xr:uid="{0FE3800F-E58E-43F5-99F7-4953B07A95E4}"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://www.authentikmovement.com/" xr:uid="{872955F4-45AF-44BA-B549-DCD2C818ECF5}"/>
-    <hyperlink ref="A9" r:id="rId9" display="http://www.conquerninja.com/" xr:uid="{B9410CE3-21F8-4546-8B62-A946F722F1B4}"/>
-    <hyperlink ref="A10" r:id="rId10" display="http://vertexlabsacademy.com/" xr:uid="{795EF495-0CD3-4178-BDE2-476989D79305}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://www.ninjaintensity.com/" xr:uid="{3F481467-6508-4413-BE80-5116D6651D7F}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://thegripninja.com/" xr:uid="{02AB5B80-E52E-489C-9608-74930B9DF323}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://www.facebook.com/NextLevelGymStw/" xr:uid="{0BAFE549-6E48-4B15-8166-D8C615373454}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://www.conquerninja.com/" xr:uid="{FCCCE76C-BFAC-47CD-A793-3383290D8D0C}"/>
-    <hyperlink ref="A15" r:id="rId15" display="http://shopthewolfsden.com/" xr:uid="{A507236F-2883-451A-9333-2FFCFAD73AC8}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://republicwarriorsports.com/" xr:uid="{C5FE9BD1-7EDB-4628-ABBA-0BEF4327DAE8}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://ninjobstacles.com/" xr:uid="{AD0AE908-B853-44B1-B9AF-97358BEB74F2}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://rocksolidwarrior.com/" xr:uid="{A6E7DE93-09B0-45CF-A02D-1ADFDB80461D}"/>
-    <hyperlink ref="A19" r:id="rId19" display="http://surgeninjagym.com/" xr:uid="{A07F6A14-A093-464C-A00E-CE5C26CA22B6}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://www.altitudemovement.com/" xr:uid="{7F4D6EA2-25D2-457E-8027-63BE5532883F}"/>
-    <hyperlink ref="A21" r:id="rId21" display="http://www.bodiesinmotionidaho.com/" xr:uid="{50E8F7DC-4DF9-4DA9-B464-CC9657AD0560}"/>
-    <hyperlink ref="A22" r:id="rId22" display="http://magiccitygymnastics.com/" xr:uid="{7818CB7C-1061-4B3D-BCBD-A475C7580520}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://bestofmidlandtx.com/biz/fitness-centers/permian-basin-ninja/" xr:uid="{EAC8E41A-2AF4-4087-A6BB-29FE58B377FD}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://ninjalairlv.com/" xr:uid="{CFD1B6C2-53F1-4335-861E-04D0D8E9AED8}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://www.ironsportsfit.com/" xr:uid="{8449F5B3-F4C6-41FA-B970-2C3A35CE0453}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://www.orthdx.com/" xr:uid="{8BC6A68A-7909-4058-9452-61DC7A230638}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://powerpickle.com/" xr:uid="{16CD38CA-1EDA-4C14-89C5-DE2C103BC3AD}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://www.305ninjaacademy.com/" xr:uid="{6FB99C56-9F8E-4D97-AF0B-EE7176BA5424}"/>
-    <hyperlink ref="A29" r:id="rId29" display="http://kidwonder.us/" xr:uid="{A87A2A20-1898-4C84-AC98-5250D07CD6E5}"/>
-    <hyperlink ref="A30" r:id="rId30" display="http://sandyzimmermanninja.com/" xr:uid="{256C492A-5045-4B31-8F8E-92B404434201}"/>
-    <hyperlink ref="A31" r:id="rId31" display="http://www.freespirityoganinjaplay.com/" xr:uid="{BE7630E2-3538-4C55-BB01-2098C795F1AC}"/>
-    <hyperlink ref="A32" r:id="rId32" display="http://www.ninjaforcegym.com/" xr:uid="{B8D43CA6-7678-4EA8-BF2D-702A8D0A3A6E}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://www.ninjasunited.com/" xr:uid="{383B3080-9F71-4978-BFE1-15E6C0D0133C}"/>
-    <hyperlink ref="A34" r:id="rId34" display="http://tricountyninja.com/" xr:uid="{7A721748-230A-4CF4-A986-644BC29CFF53}"/>
-    <hyperlink ref="A35" r:id="rId35" display="http://www.aimgym.com/" xr:uid="{85B80577-0B19-472D-AFFC-5C86177E94E0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>